--- a/DataBase/資料庫建立檢表0816.xlsx
+++ b/DataBase/資料庫建立檢表0816.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F43D02-F342-4306-902C-F04714CC2F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E9413-FB5B-47B0-9B31-758587AD0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="372" windowWidth="16584" windowHeight="12288" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主要檢表" sheetId="4" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="備用原檔" sheetId="1" r:id="rId4"/>
     <sheet name="主要檢表 wireframe對照" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="464">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1897,6 +1897,38 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coverImage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mineType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coverImage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mineType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品詳情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2026,7 +2058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2066,6 +2098,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2246,7 +2284,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2505,6 +2543,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2562,17 +2612,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2944,14 +2988,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="94"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -3179,8 +3223,8 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
       <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -3292,12 +3336,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="86" t="s">
+      <c r="P13" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
@@ -3321,10 +3365,10 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
@@ -3350,10 +3394,10 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
@@ -3441,20 +3485,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="94"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3699,8 +3743,8 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
@@ -3928,8 +3972,8 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
@@ -4068,21 +4112,21 @@
       <c r="V37" s="49"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="P38" s="90" t="s">
+      <c r="P38" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="P39" s="90"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
@@ -4106,21 +4150,21 @@
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="99"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="94"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -4456,8 +4500,8 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="95"/>
-      <c r="S50" s="95"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="99"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
@@ -4784,14 +4828,14 @@
       <c r="V61" s="63"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94" t="s">
+      <c r="B62" s="98"/>
+      <c r="C62" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="94"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -5338,14 +5382,14 @@
       <c r="T85" s="13"/>
     </row>
     <row r="86" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="94" t="s">
+      <c r="A86" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94" t="s">
+      <c r="B86" s="98"/>
+      <c r="C86" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="94"/>
+      <c r="D86" s="98"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -5610,14 +5654,14 @@
       <c r="L96" s="2"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="94" t="s">
+      <c r="A100" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="94"/>
-      <c r="C100" s="94" t="s">
+      <c r="B100" s="98"/>
+      <c r="C100" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="94"/>
+      <c r="D100" s="98"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -5900,14 +5944,14 @@
       <c r="L111" s="2"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="94" t="s">
+      <c r="A115" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="94"/>
-      <c r="C115" s="94" t="s">
+      <c r="B115" s="98"/>
+      <c r="C115" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="94"/>
+      <c r="D115" s="98"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -6261,14 +6305,14 @@
       <c r="T128" s="19"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A131" s="94" t="s">
+      <c r="A131" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="94"/>
-      <c r="C131" s="94" t="s">
+      <c r="B131" s="98"/>
+      <c r="C131" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="94"/>
+      <c r="D131" s="98"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -6515,14 +6559,14 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A144" s="94" t="s">
+      <c r="A144" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="94"/>
-      <c r="C144" s="94" t="s">
+      <c r="B144" s="98"/>
+      <c r="C144" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="94"/>
+      <c r="D144" s="98"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6707,14 +6751,14 @@
       <c r="L151" s="2"/>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A155" s="94" t="s">
+      <c r="A155" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="94"/>
-      <c r="C155" s="94" t="s">
+      <c r="B155" s="98"/>
+      <c r="C155" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="94"/>
+      <c r="D155" s="98"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6843,14 +6887,14 @@
       <c r="U161"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A162" s="94" t="s">
+      <c r="A162" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="94"/>
-      <c r="C162" s="94" t="s">
+      <c r="B162" s="98"/>
+      <c r="C162" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="94"/>
+      <c r="D162" s="98"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -7022,272 +7066,272 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="E1" s="97" t="s">
+      <c r="C1" s="101"/>
+      <c r="E1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="H1" s="100" t="s">
+      <c r="F1" s="101"/>
+      <c r="H1" s="104" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="K1" s="100" t="s">
+      <c r="I1" s="104"/>
+      <c r="K1" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="100"/>
-      <c r="N1" s="97" t="s">
+      <c r="L1" s="104"/>
+      <c r="N1" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="97"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="102" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="E2" s="98" t="s">
+      <c r="C2" s="103"/>
+      <c r="E2" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="H2" s="98" t="s">
+      <c r="F2" s="103"/>
+      <c r="H2" s="102" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="K2" s="98" t="s">
+      <c r="I2" s="103"/>
+      <c r="K2" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="N2" s="98" t="s">
+      <c r="L2" s="103"/>
+      <c r="N2" s="102" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="99"/>
+      <c r="O2" s="103"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="E11" s="97" t="s">
+      <c r="C11" s="101"/>
+      <c r="E11" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="H11" s="100" t="s">
+      <c r="F11" s="101"/>
+      <c r="H11" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="K11" s="100" t="s">
+      <c r="I11" s="104"/>
+      <c r="K11" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="100"/>
-      <c r="N11" s="97" t="s">
+      <c r="L11" s="104"/>
+      <c r="N11" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="97"/>
+      <c r="O11" s="101"/>
     </row>
     <row r="12" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="102" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="E12" s="98" t="s">
+      <c r="C12" s="103"/>
+      <c r="E12" s="102" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="H12" s="98" t="s">
+      <c r="F12" s="103"/>
+      <c r="H12" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="99"/>
-      <c r="K12" s="98" t="s">
+      <c r="I12" s="103"/>
+      <c r="K12" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="99"/>
-      <c r="N12" s="98" t="s">
+      <c r="L12" s="103"/>
+      <c r="N12" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="O12" s="99"/>
+      <c r="O12" s="103"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="97"/>
+      <c r="F21" s="101"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="102" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="103"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -7354,14 +7398,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="94"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -7534,14 +7578,14 @@
       <c r="J11" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="96" t="s">
+      <c r="B16" s="98"/>
+      <c r="C16" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="94"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7710,14 +7754,14 @@
       <c r="J25" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="94"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7838,14 +7882,14 @@
       <c r="J36" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="94"/>
+      <c r="D41" s="98"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -8014,14 +8058,14 @@
       <c r="J50" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94" t="s">
+      <c r="B55" s="98"/>
+      <c r="C55" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="94"/>
+      <c r="D55" s="98"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -8142,14 +8186,14 @@
       <c r="J61" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="s">
+      <c r="A66" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94" t="s">
+      <c r="B66" s="98"/>
+      <c r="C66" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="94"/>
+      <c r="D66" s="98"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -8270,14 +8314,14 @@
       <c r="J72" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="94" t="s">
+      <c r="A77" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94" t="s">
+      <c r="B77" s="98"/>
+      <c r="C77" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="94"/>
+      <c r="D77" s="98"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -8446,14 +8490,14 @@
       <c r="J86" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="94" t="s">
+      <c r="A91" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="94"/>
-      <c r="C91" s="94" t="s">
+      <c r="B91" s="98"/>
+      <c r="C91" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="94"/>
+      <c r="D91" s="98"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -8638,14 +8682,14 @@
       <c r="J101" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="94" t="s">
+      <c r="A106" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="94"/>
-      <c r="C106" s="94" t="s">
+      <c r="B106" s="98"/>
+      <c r="C106" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="94"/>
+      <c r="D106" s="98"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -8718,14 +8762,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="94" t="s">
+      <c r="A114" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="94"/>
-      <c r="C114" s="94" t="s">
+      <c r="B114" s="98"/>
+      <c r="C114" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="94"/>
+      <c r="D114" s="98"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -8798,14 +8842,14 @@
       <c r="J117" s="2"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="94" t="s">
+      <c r="A122" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="94"/>
-      <c r="C122" s="94" t="s">
+      <c r="B122" s="98"/>
+      <c r="C122" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="94"/>
+      <c r="D122" s="98"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8977,10 +9021,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:V166"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -9008,14 +9052,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="103" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="104"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="64"/>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
@@ -9277,8 +9321,8 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
       <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -9394,12 +9438,12 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="86" t="s">
+      <c r="P14" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
       <c r="V14" s="48"/>
@@ -9425,10 +9469,10 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
       <c r="V15" s="49"/>
@@ -9454,10 +9498,10 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="2"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
@@ -9545,20 +9589,20 @@
       <c r="R20" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="101" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="105" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="64"/>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
@@ -9982,8 +10026,8 @@
       <c r="R32" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S32" s="93"/>
-      <c r="T32" s="93"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
@@ -10091,12 +10135,12 @@
       <c r="V35" s="49"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="P36" s="90" t="s">
+      <c r="P36" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="91"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
@@ -10106,21 +10150,21 @@
       <c r="Q37" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="103" t="s">
+      <c r="B38" s="98"/>
+      <c r="C38" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="104"/>
+      <c r="D38" s="108"/>
       <c r="E38" s="64"/>
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
@@ -10720,14 +10764,14 @@
       <c r="V54" s="63"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="103" t="s">
+      <c r="B55" s="98"/>
+      <c r="C55" s="107" t="s">
         <v>249</v>
       </c>
-      <c r="D55" s="104"/>
+      <c r="D55" s="108"/>
       <c r="E55" s="64"/>
       <c r="F55" s="74"/>
       <c r="G55" s="74"/>
@@ -11264,14 +11308,14 @@
       <c r="U75"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="94"/>
-      <c r="C76" s="103" t="s">
+      <c r="B76" s="98"/>
+      <c r="C76" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="104"/>
+      <c r="D76" s="108"/>
       <c r="E76" s="64"/>
       <c r="F76" s="74"/>
       <c r="G76" s="74"/>
@@ -11476,66 +11520,63 @@
       <c r="T83" s="13"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>157</v>
+      <c r="A84" s="109" t="s">
+        <v>456</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>449</v>
       </c>
       <c r="F84" s="10"/>
-      <c r="G84" s="10" t="s">
-        <v>391</v>
-      </c>
+      <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="2"/>
-      <c r="O84" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="1" t="s">
-        <v>176</v>
+      <c r="A85" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>449</v>
       </c>
       <c r="F85" s="10"/>
-      <c r="G85" s="10" t="s">
-        <v>391</v>
-      </c>
+      <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
       <c r="L85" s="2"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="45" t="s">
-        <v>295</v>
+      <c r="A86" s="109" t="s">
+        <v>461</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="6" t="s">
-        <v>176</v>
+      <c r="D86" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>449</v>
@@ -11549,241 +11590,247 @@
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="A87" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E87" s="2">
-        <v>8</v>
+        <v>177</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
-      <c r="J87" s="10" t="s">
-        <v>418</v>
-      </c>
+      <c r="J87" s="10"/>
       <c r="K87" s="10"/>
-      <c r="L87" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="L87" s="2"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="2"/>
+      <c r="O88" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="94"/>
-      <c r="C90" s="103" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="104"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="74"/>
-      <c r="K90" s="74"/>
-      <c r="L90" s="9"/>
+      <c r="A90" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" s="2">
+        <v>8</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K91" s="10"/>
+      <c r="L91" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="110" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="98"/>
+      <c r="C94" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="108"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="74"/>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F95" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G95" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H95" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I95" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="J95" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="K95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" t="s">
+      <c r="O95" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B96" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C96" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F92" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="G92" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="H92" s="67"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="67" t="s">
-        <v>420</v>
-      </c>
-      <c r="K92" s="67"/>
-      <c r="L92" s="44"/>
-      <c r="O92" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E93" s="2">
-        <v>8</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="H96" s="10"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="H96" s="67"/>
       <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="2"/>
+      <c r="J96" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="K96" s="67"/>
+      <c r="L96" s="44"/>
+      <c r="O96" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>154</v>
+      <c r="A97" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C97" s="6"/>
       <c r="D97" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="E97" s="2">
+        <v>8</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -11791,21 +11838,27 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>177</v>
+      <c r="A98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>391</v>
+      </c>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
@@ -11814,16 +11867,14 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>449</v>
@@ -11840,14 +11891,14 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="1" t="s">
-        <v>176</v>
+        <v>340</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>449</v>
@@ -11863,15 +11914,15 @@
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="45" t="s">
-        <v>295</v>
+      <c r="A101" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>417</v>
+        <v>345</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="6" t="s">
-        <v>176</v>
+      <c r="D101" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>449</v>
@@ -11885,351 +11936,333 @@
       <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="A102" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E102" s="2">
-        <v>8</v>
+        <v>177</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
-      <c r="J102" s="10" t="s">
-        <v>418</v>
-      </c>
+      <c r="J102" s="10"/>
       <c r="K102" s="10"/>
-      <c r="L102" s="3" t="s">
-        <v>436</v>
-      </c>
+      <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="70"/>
+      <c r="A103" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M104" s="2"/>
+      <c r="A104" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" s="22"/>
+      <c r="D104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="94"/>
-      <c r="C105" s="101" t="s">
-        <v>348</v>
-      </c>
-      <c r="D105" s="102"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="31"/>
+      <c r="A105" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E106" s="2">
+        <v>8</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K106" s="10"/>
+      <c r="L106" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A107" s="70"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A109" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="98"/>
+      <c r="C109" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="D109" s="106"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="31"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F106" s="10" t="s">
+      <c r="F110" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G110" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H106" s="10" t="s">
+      <c r="H110" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="I110" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="J110" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K106" s="10" t="s">
+      <c r="K110" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L106" s="3" t="s">
+      <c r="L110" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A111" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B111" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C111" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D111" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F107" s="23"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="K107" s="10"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E108" s="2">
-        <v>8</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="1"/>
-      <c r="P108"/>
-      <c r="Q108"/>
-      <c r="R108"/>
-      <c r="S108"/>
-      <c r="T108"/>
-      <c r="U108"/>
-    </row>
-    <row r="109" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="22"/>
-      <c r="M109" s="1"/>
-      <c r="O109" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="P109"/>
-      <c r="Q109"/>
-      <c r="R109"/>
-      <c r="S109"/>
-      <c r="T109"/>
-      <c r="U109"/>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C110" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="K110" s="23"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="1"/>
-      <c r="O110" s="32">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E111" s="2">
-        <v>8</v>
-      </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10" t="s">
-        <v>391</v>
-      </c>
+      <c r="F111" s="23"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
+      <c r="J111" s="10" t="s">
+        <v>419</v>
+      </c>
       <c r="K111" s="10"/>
-      <c r="L111" s="2"/>
+      <c r="L111" s="7"/>
       <c r="M111" s="1"/>
-      <c r="O111" t="s">
-        <v>268</v>
-      </c>
-      <c r="U111" s="19"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>225</v>
+        <v>424</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F112" s="10"/>
+        <v>422</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E112" s="2">
+        <v>8</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="G112" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
       <c r="L112" s="2"/>
       <c r="M112" s="1"/>
-      <c r="U112" s="19"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+    </row>
+    <row r="113" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D113" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="22" t="s">
         <v>179</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10" t="s">
+      <c r="F113" s="23"/>
+      <c r="G113" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="2"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="22"/>
       <c r="M113" s="1"/>
-      <c r="P113" s="19"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2" t="s">
-        <v>178</v>
+      <c r="O113" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A114" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C114" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10" t="s">
+      <c r="F114" s="23"/>
+      <c r="G114" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="2"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="K114" s="23"/>
+      <c r="L114" s="22"/>
       <c r="M114" s="1"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O114" s="32">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>216</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C115" s="6"/>
       <c r="D115" s="2" t="s">
         <v>179</v>
       </c>
@@ -12244,189 +12277,204 @@
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
-      <c r="L115" s="17" t="s">
+      <c r="L115" s="2"/>
+      <c r="M115" s="1"/>
+      <c r="O115" t="s">
+        <v>268</v>
+      </c>
+      <c r="U115" s="19"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="1"/>
+      <c r="U116" s="19"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="1"/>
+      <c r="P117" s="19"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E119" s="2">
+        <v>8</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="M115" s="6"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A116" s="68"/>
-      <c r="M116" s="6"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" s="68"/>
-      <c r="M117" s="1"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" s="94" t="s">
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A120" s="68"/>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A121" s="68"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A122" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="94"/>
-      <c r="C118" s="103" t="s">
+      <c r="B122" s="98"/>
+      <c r="C122" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="D118" s="104"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="74"/>
-      <c r="H118" s="74"/>
-      <c r="I118" s="74"/>
-      <c r="J118" s="74"/>
-      <c r="K118" s="74"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="68"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="D122" s="108"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="74"/>
+      <c r="I122" s="74"/>
+      <c r="J122" s="74"/>
+      <c r="K122" s="74"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="68"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F123" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G123" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="H123" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="I123" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="J119" s="10" t="s">
+      <c r="J123" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K119" s="10" t="s">
+      <c r="K123" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="L123" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M119" s="69"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A120" s="7" t="s">
+      <c r="M123" s="69"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C124" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E124" s="2">
         <v>8</v>
-      </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E121" s="2">
-        <v>8</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="17" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-      <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="2"/>
-      <c r="O123" s="13"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
@@ -12434,22 +12482,25 @@
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
-      <c r="L124" s="2"/>
-      <c r="O124" s="13"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
-        <v>96</v>
+      <c r="L124" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="D125" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>449</v>
+        <v>179</v>
+      </c>
+      <c r="E125" s="2">
+        <v>8</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -12457,21 +12508,24 @@
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
       <c r="K125" s="10"/>
-      <c r="L125" s="2"/>
-      <c r="O125" s="13"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L125" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>387</v>
+        <v>90</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>430</v>
+        <v>359</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
@@ -12479,14 +12533,13 @@
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
       <c r="L126" s="2"/>
-      <c r="O126" s="13"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>332</v>
+        <v>92</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
@@ -12504,18 +12557,22 @@
       <c r="L127" s="2"/>
       <c r="O127" s="13"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>333</v>
+        <v>94</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E128" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
@@ -12526,15 +12583,15 @@
       <c r="O128" s="13"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>334</v>
+      <c r="A129" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
-        <v>451</v>
+        <v>177</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>449</v>
@@ -12550,18 +12607,16 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>449</v>
-      </c>
+      <c r="D130" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E130" s="2"/>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
@@ -12572,244 +12627,238 @@
       <c r="O130" s="13"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A131" s="70"/>
+      <c r="A131" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="2"/>
       <c r="O131" s="13"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A132" s="70"/>
-      <c r="P132" s="13"/>
+      <c r="A132" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="2"/>
+      <c r="O132" s="13"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A133" s="68"/>
-      <c r="P133" s="13"/>
+      <c r="A133" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="2"/>
+      <c r="O133" s="13"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A134" s="94" t="s">
+      <c r="A134" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="2"/>
+      <c r="O134" s="13"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="70"/>
+      <c r="O135" s="13"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" s="70"/>
+      <c r="P136" s="13"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" s="68"/>
+      <c r="P137" s="13"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="94"/>
-      <c r="C134" s="103" t="s">
+      <c r="B138" s="98"/>
+      <c r="C138" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="D134" s="104"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="74"/>
-      <c r="G134" s="74"/>
-      <c r="H134" s="74"/>
-      <c r="I134" s="74"/>
-      <c r="J134" s="74"/>
-      <c r="K134" s="74"/>
-      <c r="L134" s="9"/>
-      <c r="P134" s="13"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+      <c r="D138" s="108"/>
+      <c r="E138" s="64"/>
+      <c r="F138" s="74"/>
+      <c r="G138" s="74"/>
+      <c r="H138" s="74"/>
+      <c r="I138" s="74"/>
+      <c r="J138" s="74"/>
+      <c r="K138" s="74"/>
+      <c r="L138" s="9"/>
+      <c r="P138" s="13"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F135" s="10" t="s">
+      <c r="F139" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="10" t="s">
+      <c r="G139" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H135" s="10" t="s">
+      <c r="H139" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I135" s="10" t="s">
+      <c r="I139" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="J135" s="10" t="s">
+      <c r="J139" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K135" s="10" t="s">
+      <c r="K139" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L135" s="3" t="s">
+      <c r="L139" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O135" t="s">
+      <c r="O139" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B140" s="14" t="s">
         <v>448</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E136" s="2">
-        <v>8</v>
-      </c>
-      <c r="F136" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="G136" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="H136" s="67" t="s">
-        <v>455</v>
-      </c>
-      <c r="I136" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="J136" s="67"/>
-      <c r="K136" s="67"/>
-      <c r="L136" s="15"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F137" s="67"/>
-      <c r="G137" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="H137" s="67"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="67"/>
-      <c r="K137" s="67"/>
-      <c r="L137" s="44"/>
-      <c r="P137" s="13"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E138" s="2">
-        <v>8</v>
-      </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="2"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E139" s="2">
-        <v>8</v>
-      </c>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" s="2">
+        <v>8</v>
+      </c>
+      <c r="F140" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="2"/>
+      <c r="G140" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="H140" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="J140" s="67"/>
+      <c r="K140" s="67"/>
+      <c r="L140" s="15"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2" t="s">
-        <v>174</v>
+      <c r="A141" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="H141" s="67"/>
       <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="2"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="67"/>
+      <c r="L141" s="44"/>
+      <c r="P141" s="13"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
-        <v>331</v>
+      <c r="A142" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C142" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C142" s="6"/>
       <c r="D142" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E142" s="16"/>
+        <v>174</v>
+      </c>
+      <c r="E142" s="2">
+        <v>8</v>
+      </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10" t="s">
         <v>391</v>
@@ -12822,408 +12871,411 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C143" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="D143" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>449</v>
+        <v>174</v>
+      </c>
+      <c r="E143" s="2">
+        <v>8</v>
       </c>
       <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="G143" s="10" t="s">
+        <v>391</v>
+      </c>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
-      <c r="L143" s="2"/>
+      <c r="L143" s="17" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A144" s="76"/>
+      <c r="A144" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="70"/>
+      <c r="A145" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E146" s="16"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="2"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="94" t="s">
+      <c r="A147" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A148" s="76"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A149" s="70"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A151" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="94"/>
-      <c r="C147" s="103" t="s">
+      <c r="B151" s="98"/>
+      <c r="C151" s="107" t="s">
         <v>386</v>
       </c>
-      <c r="D147" s="104"/>
-      <c r="E147" s="64"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
-      <c r="I147" s="74"/>
-      <c r="J147" s="74"/>
-      <c r="K147" s="74"/>
-      <c r="L147" s="9"/>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+      <c r="D151" s="108"/>
+      <c r="E151" s="64"/>
+      <c r="F151" s="74"/>
+      <c r="G151" s="74"/>
+      <c r="H151" s="74"/>
+      <c r="I151" s="74"/>
+      <c r="J151" s="74"/>
+      <c r="K151" s="74"/>
+      <c r="L151" s="9"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F148" s="10" t="s">
+      <c r="F152" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G148" s="10" t="s">
+      <c r="G152" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H148" s="10" t="s">
+      <c r="H152" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I148" s="10" t="s">
+      <c r="I152" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="J148" s="10" t="s">
+      <c r="J152" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K148" s="10" t="s">
+      <c r="K152" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L148" s="3" t="s">
+      <c r="L152" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F149" s="10" t="s">
+      <c r="F153" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G149" s="10" t="s">
+      <c r="G153" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="2"/>
-    </row>
-    <row r="150" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="6" t="s">
+      <c r="C154" s="2"/>
+      <c r="D154" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
-      <c r="L150" s="2"/>
-      <c r="P150"/>
-      <c r="Q150"/>
-      <c r="R150"/>
-      <c r="S150"/>
-      <c r="T150"/>
-      <c r="U150"/>
-    </row>
-    <row r="151" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="69"/>
-      <c r="B151" s="27"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="73"/>
-      <c r="H151" s="73"/>
-      <c r="I151" s="73"/>
-      <c r="J151" s="73"/>
-      <c r="K151" s="73"/>
-      <c r="P151"/>
-      <c r="Q151"/>
-      <c r="R151"/>
-      <c r="S151"/>
-      <c r="T151"/>
-      <c r="U151"/>
-    </row>
-    <row r="152" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="73"/>
-      <c r="G152" s="73"/>
-      <c r="H152" s="73"/>
-      <c r="I152" s="73"/>
-      <c r="J152" s="73"/>
-      <c r="K152" s="73"/>
-      <c r="P152"/>
-      <c r="Q152"/>
-      <c r="R152"/>
-      <c r="S152"/>
-      <c r="T152"/>
-      <c r="U152"/>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="29"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="73"/>
-      <c r="H153" s="73"/>
-      <c r="I153" s="73"/>
-      <c r="J153" s="73"/>
-      <c r="K153" s="73"/>
-      <c r="L153" s="13"/>
-      <c r="U153" s="13"/>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="94" t="s">
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="2"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+    </row>
+    <row r="155" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="69"/>
+      <c r="B155" s="27"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="73"/>
+      <c r="H155" s="73"/>
+      <c r="I155" s="73"/>
+      <c r="J155" s="73"/>
+      <c r="K155" s="73"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+    </row>
+    <row r="156" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="73"/>
+      <c r="G156" s="73"/>
+      <c r="H156" s="73"/>
+      <c r="I156" s="73"/>
+      <c r="J156" s="73"/>
+      <c r="K156" s="73"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A157" s="29"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="73"/>
+      <c r="G157" s="73"/>
+      <c r="H157" s="73"/>
+      <c r="I157" s="73"/>
+      <c r="J157" s="73"/>
+      <c r="K157" s="73"/>
+      <c r="L157" s="13"/>
+      <c r="U157" s="13"/>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A158" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="94"/>
-      <c r="C154" s="101" t="s">
+      <c r="B158" s="98"/>
+      <c r="C158" s="105" t="s">
         <v>385</v>
       </c>
-      <c r="D154" s="102"/>
-      <c r="E154" s="64"/>
-      <c r="F154" s="74"/>
-      <c r="G154" s="74"/>
-      <c r="H154" s="74"/>
-      <c r="I154" s="74"/>
-      <c r="J154" s="74"/>
-      <c r="K154" s="74"/>
-      <c r="L154" s="9"/>
-      <c r="U154" s="13"/>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H155" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I155" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J155" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K155" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U155" s="13"/>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E156" s="2">
-        <v>8</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="H156" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="I156" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="3"/>
-      <c r="U156" s="13"/>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="75"/>
-      <c r="U157" s="13"/>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="75"/>
+      <c r="D158" s="106"/>
+      <c r="E158" s="64"/>
+      <c r="F158" s="74"/>
+      <c r="G158" s="74"/>
+      <c r="H158" s="74"/>
+      <c r="I158" s="74"/>
+      <c r="J158" s="74"/>
+      <c r="K158" s="74"/>
+      <c r="L158" s="9"/>
       <c r="U158" s="13"/>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>326</v>
+        <v>25</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>377</v>
+        <v>26</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>176</v>
+        <v>3</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="75"/>
+        <v>175</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J159" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K159" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="U159" s="13"/>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="E160" s="2">
+        <v>8</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="J160" s="10"/>
       <c r="K160" s="10"/>
-      <c r="L160" s="75"/>
+      <c r="L160" s="3"/>
       <c r="U160" s="13"/>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C161" s="2"/>
-      <c r="D161" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E161" s="2"/>
+      <c r="D161" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="G161" s="10" t="s">
+        <v>391</v>
+      </c>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
       <c r="J161" s="10"/>
       <c r="K161" s="10"/>
       <c r="L161" s="75"/>
-      <c r="P161" s="13"/>
       <c r="U161" s="13"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>383</v>
+      <c r="A162" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>176</v>
@@ -13237,69 +13289,162 @@
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
       <c r="K162" s="10"/>
-      <c r="L162" s="22"/>
-      <c r="P162" s="13"/>
+      <c r="L162" s="75"/>
+      <c r="U162" s="13"/>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A163" s="105" t="s">
+      <c r="A163" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="75"/>
+      <c r="U163" s="13"/>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="75"/>
+      <c r="U164" s="13"/>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="75"/>
+      <c r="P165" s="13"/>
+      <c r="U165" s="13"/>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="22"/>
+      <c r="P166" s="13"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A167" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="B163" s="105" t="s">
+      <c r="B167" s="86" t="s">
         <v>372</v>
       </c>
-      <c r="C163" s="106">
+      <c r="C167" s="87">
         <v>34</v>
       </c>
-      <c r="D163" s="105" t="s">
+      <c r="D167" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="E163" s="107" t="s">
+      <c r="E167" s="88" t="s">
         <v>449</v>
       </c>
-      <c r="F163" s="108"/>
-      <c r="G163" s="108"/>
-      <c r="H163" s="108"/>
-      <c r="I163" s="108"/>
-      <c r="J163" s="108"/>
-      <c r="K163" s="108"/>
-      <c r="L163" s="107"/>
-      <c r="P163" s="13"/>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A164" s="69"/>
-      <c r="Q164" s="13"/>
-      <c r="R164" s="13"/>
-      <c r="S164" s="13"/>
-      <c r="T164" s="13"/>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="69"/>
-      <c r="Q165" s="13"/>
-      <c r="R165" s="13"/>
-      <c r="S165" s="13"/>
-      <c r="T165" s="13"/>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A166" s="69"/>
-      <c r="Q166" s="13"/>
-      <c r="R166" s="13"/>
-      <c r="S166" s="13"/>
-      <c r="T166" s="13"/>
+      <c r="F167" s="89"/>
+      <c r="G167" s="89"/>
+      <c r="H167" s="89"/>
+      <c r="I167" s="89"/>
+      <c r="J167" s="89"/>
+      <c r="K167" s="89"/>
+      <c r="L167" s="88"/>
+      <c r="P167" s="13"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A168" s="69"/>
+      <c r="Q168" s="13"/>
+      <c r="R168" s="13"/>
+      <c r="S168" s="13"/>
+      <c r="T168" s="13"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A169" s="69"/>
+      <c r="Q169" s="13"/>
+      <c r="R169" s="13"/>
+      <c r="S169" s="13"/>
+      <c r="T169" s="13"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A170" s="69"/>
+      <c r="Q170" s="13"/>
+      <c r="R170" s="13"/>
+      <c r="S170" s="13"/>
+      <c r="T170" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="P36:S36"/>
     <mergeCell ref="R37:S37"/>

--- a/DataBase/資料庫建立檢表0816.xlsx
+++ b/DataBase/資料庫建立檢表0816.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E9413-FB5B-47B0-9B31-758587AD0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48623AD3-60AE-4F3C-B9DD-C31D62BF6245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13170" yWindow="3060" windowWidth="18135" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主要檢表" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="465">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1929,6 +1929,10 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending,processing,solved</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2555,6 +2559,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2576,21 +2598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2598,6 +2605,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2611,12 +2621,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2966,36 +2970,36 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="1" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
+    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="98"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -3008,7 +3012,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -3046,7 +3050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -3074,7 +3078,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -3103,7 +3107,7 @@
       </c>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3127,7 +3131,7 @@
       <c r="M5" s="54"/>
       <c r="N5" s="56"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -3151,7 +3155,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="56"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -3175,7 +3179,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="56"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -3199,7 +3203,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="56"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -3223,11 +3227,11 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -3257,7 +3261,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -3287,7 +3291,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -3315,7 +3319,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -3336,17 +3340,17 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="90" t="s">
+      <c r="P13" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>232</v>
       </c>
@@ -3365,15 +3369,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>295</v>
       </c>
@@ -3394,15 +3398,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>159</v>
       </c>
@@ -3433,7 +3437,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
@@ -3454,7 +3458,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -3475,7 +3479,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="49"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P19" s="50" t="s">
         <v>88</v>
       </c>
@@ -3485,20 +3489,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="98" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="100" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="98"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3521,7 +3525,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -3573,7 +3577,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="49"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>258</v>
       </c>
@@ -3611,7 +3615,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="49"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
@@ -3651,7 +3655,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="49"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -3678,7 +3682,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="49"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -3713,7 +3717,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="49"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -3743,12 +3747,12 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -3783,7 +3787,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="49"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -3816,7 +3820,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="49"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3849,7 +3853,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="49"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -3878,7 +3882,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="49"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3907,7 +3911,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="49"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -3940,7 +3944,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -3972,12 +3976,12 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -4014,7 +4018,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="49"/>
     </row>
-    <row r="35" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
@@ -4051,7 +4055,7 @@
       <c r="U35" s="40"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>133</v>
       </c>
@@ -4082,7 +4086,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -4111,27 +4115,27 @@
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="P38" s="94" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P38" s="100" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="P39" s="94"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P39" s="100"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
     </row>
-    <row r="40" spans="1:25" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="P40" s="57" t="s">
         <v>280</v>
       </c>
@@ -4145,26 +4149,26 @@
       <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P41" s="50"/>
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="99"/>
-      <c r="S41" s="99"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="98" t="s">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="98"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -4184,7 +4188,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="49"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -4240,7 +4244,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="49"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>258</v>
       </c>
@@ -4282,7 +4286,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="49"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -4329,7 +4333,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="49"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -4370,7 +4374,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="49"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>257</v>
       </c>
@@ -4412,7 +4416,7 @@
       <c r="U47" s="13"/>
       <c r="V47" s="49"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -4444,7 +4448,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="49"/>
     </row>
-    <row r="49" spans="1:22" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -4475,7 +4479,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="60"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -4500,13 +4504,13 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="99"/>
-      <c r="S50" s="99"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="94"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -4535,7 +4539,7 @@
       <c r="U51" s="13"/>
       <c r="V51" s="49"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -4574,7 +4578,7 @@
       </c>
       <c r="V52" s="49"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
@@ -4613,7 +4617,7 @@
       </c>
       <c r="V53" s="49"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
@@ -4652,7 +4656,7 @@
       </c>
       <c r="V54" s="49"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -4689,7 +4693,7 @@
       </c>
       <c r="V55" s="49"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -4728,7 +4732,7 @@
       </c>
       <c r="V56" s="49"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
@@ -4771,7 +4775,7 @@
       </c>
       <c r="V57" s="49"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P58" s="50"/>
       <c r="Q58" s="38" t="s">
         <v>270</v>
@@ -4790,7 +4794,7 @@
       </c>
       <c r="V58" s="49"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P59" s="50"/>
       <c r="Q59" s="38" t="s">
         <v>270</v>
@@ -4809,7 +4813,7 @@
       </c>
       <c r="V59" s="49"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P60" s="50"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
@@ -4818,7 +4822,7 @@
       <c r="U60" s="13"/>
       <c r="V60" s="49"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P61" s="61"/>
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
@@ -4827,15 +4831,15 @@
       <c r="U61" s="62"/>
       <c r="V61" s="63"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="98" t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98" t="s">
+      <c r="B62" s="92"/>
+      <c r="C62" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="98"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4853,7 +4857,7 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>269</v>
       </c>
@@ -4921,7 +4925,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -4979,7 +4983,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>257</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -5031,7 +5035,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>225</v>
       </c>
@@ -5058,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>250</v>
       </c>
@@ -5080,7 +5084,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>251</v>
       </c>
@@ -5102,7 +5106,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
@@ -5125,7 +5129,7 @@
       <c r="L72" s="2"/>
       <c r="R72" s="20"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -5147,7 +5151,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -5175,7 +5179,7 @@
       <c r="T74"/>
       <c r="U74"/>
     </row>
-    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
@@ -5201,7 +5205,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -5227,7 +5231,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>145</v>
       </c>
@@ -5254,7 +5258,7 @@
       <c r="S77"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
@@ -5281,7 +5285,7 @@
       <c r="S78"/>
       <c r="T78"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
@@ -5303,7 +5307,7 @@
       <c r="P79" s="13"/>
       <c r="U79" s="13"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
@@ -5327,7 +5331,7 @@
       <c r="P80" s="13"/>
       <c r="U80" s="13"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -5355,41 +5359,41 @@
       <c r="P81" s="13"/>
       <c r="U81" s="13"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="98" t="s">
+    <row r="86" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="98"/>
-      <c r="C86" s="98" t="s">
+      <c r="B86" s="92"/>
+      <c r="C86" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="98"/>
+      <c r="D86" s="92"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -5401,7 +5405,7 @@
       <c r="P86"/>
       <c r="U86"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>25</v>
       </c>
@@ -5439,7 +5443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>263</v>
       </c>
@@ -5466,7 +5470,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>37</v>
       </c>
@@ -5493,7 +5497,7 @@
       <c r="L89" s="2"/>
       <c r="U89" s="13"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
@@ -5515,7 +5519,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>152</v>
       </c>
@@ -5538,7 +5542,7 @@
       <c r="L91" s="2"/>
       <c r="P91" s="13"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>154</v>
       </c>
@@ -5558,7 +5562,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>159</v>
       </c>
@@ -5580,7 +5584,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>157</v>
       </c>
@@ -5606,7 +5610,7 @@
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>257</v>
       </c>
@@ -5631,7 +5635,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
         <v>295</v>
       </c>
@@ -5653,15 +5657,15 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="98" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="98"/>
-      <c r="C100" s="98" t="s">
+      <c r="B100" s="92"/>
+      <c r="C100" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="98"/>
+      <c r="D100" s="92"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -5671,7 +5675,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>25</v>
       </c>
@@ -5709,7 +5713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>263</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
@@ -5765,7 +5769,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>225</v>
       </c>
@@ -5789,7 +5793,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
@@ -5811,7 +5815,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -5833,7 +5837,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>154</v>
       </c>
@@ -5853,7 +5857,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>159</v>
       </c>
@@ -5875,7 +5879,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>157</v>
       </c>
@@ -5899,7 +5903,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>257</v>
       </c>
@@ -5921,7 +5925,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="45" t="s">
         <v>295</v>
       </c>
@@ -5943,15 +5947,15 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="98" t="s">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="98"/>
-      <c r="C115" s="98" t="s">
+      <c r="B115" s="92"/>
+      <c r="C115" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="98"/>
+      <c r="D115" s="92"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5961,7 +5965,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>269</v>
       </c>
@@ -6029,7 +6033,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -6061,7 +6065,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>217</v>
       </c>
@@ -6091,7 +6095,7 @@
       <c r="T119"/>
       <c r="U119"/>
     </row>
-    <row r="120" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
         <v>263</v>
       </c>
@@ -6124,7 +6128,7 @@
       <c r="T120"/>
       <c r="U120"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>37</v>
       </c>
@@ -6149,7 +6153,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>225</v>
       </c>
@@ -6177,7 +6181,7 @@
       </c>
       <c r="U122" s="19"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>140</v>
       </c>
@@ -6200,7 +6204,7 @@
       <c r="L123" s="2"/>
       <c r="U123" s="19"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>164</v>
       </c>
@@ -6225,7 +6229,7 @@
       <c r="L124" s="2"/>
       <c r="P124" s="19"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>162</v>
       </c>
@@ -6246,7 +6250,7 @@
       <c r="L125" s="2"/>
       <c r="P125" s="19"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>107</v>
       </c>
@@ -6268,7 +6272,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>102</v>
       </c>
@@ -6298,21 +6302,21 @@
       <c r="S127" s="19"/>
       <c r="T127" s="19"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
       <c r="S128" s="19"/>
       <c r="T128" s="19"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A131" s="98" t="s">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="98"/>
-      <c r="C131" s="98" t="s">
+      <c r="B131" s="92"/>
+      <c r="C131" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="98"/>
+      <c r="D131" s="92"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -6322,7 +6326,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>86</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
         <v>269</v>
       </c>
@@ -6410,7 +6414,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="22"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>88</v>
       </c>
@@ -6436,7 +6440,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>90</v>
       </c>
@@ -6458,7 +6462,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
@@ -6480,7 +6484,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
@@ -6505,7 +6509,7 @@
       <c r="L138" s="2"/>
       <c r="O138" s="13"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>96</v>
       </c>
@@ -6528,7 +6532,7 @@
       <c r="L139" s="2"/>
       <c r="O139" s="13"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>235</v>
       </c>
@@ -6549,24 +6553,24 @@
       <c r="L140" s="2"/>
       <c r="O140" s="13"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O141" s="13"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O142" s="13"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P143" s="13"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A144" s="98" t="s">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="98"/>
-      <c r="C144" s="98" t="s">
+      <c r="B144" s="92"/>
+      <c r="C144" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="98"/>
+      <c r="D144" s="92"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6577,7 +6581,7 @@
       <c r="L144" s="9"/>
       <c r="P144" s="13"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
@@ -6616,7 +6620,7 @@
       </c>
       <c r="P145" s="13"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>37</v>
       </c>
@@ -6639,7 +6643,7 @@
       <c r="L146" s="2"/>
       <c r="P146" s="13"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
@@ -6662,7 +6666,7 @@
       <c r="L147" s="2"/>
       <c r="P147" s="13"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>167</v>
       </c>
@@ -6684,7 +6688,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -6706,7 +6710,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>171</v>
       </c>
@@ -6728,7 +6732,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>172</v>
       </c>
@@ -6750,15 +6754,15 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A155" s="98" t="s">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="98"/>
-      <c r="C155" s="98" t="s">
+      <c r="B155" s="92"/>
+      <c r="C155" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="98"/>
+      <c r="D155" s="92"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6768,7 +6772,7 @@
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>25</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
         <v>257</v>
       </c>
@@ -6832,7 +6836,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>239</v>
       </c>
@@ -6854,7 +6858,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
       <c r="B159" s="27"/>
       <c r="P159"/>
@@ -6864,7 +6868,7 @@
       <c r="T159"/>
       <c r="U159"/>
     </row>
-    <row r="160" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
       <c r="E160" s="28"/>
@@ -6875,7 +6879,7 @@
       <c r="T160"/>
       <c r="U160"/>
     </row>
-    <row r="161" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="E161" s="28"/>
@@ -6886,15 +6890,15 @@
       <c r="T161"/>
       <c r="U161"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A162" s="98" t="s">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="98"/>
-      <c r="C162" s="98" t="s">
+      <c r="B162" s="92"/>
+      <c r="C162" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="98"/>
+      <c r="D162" s="92"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -6905,7 +6909,7 @@
       <c r="L162" s="9"/>
       <c r="U162" s="13"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>25</v>
       </c>
@@ -6944,7 +6948,7 @@
       </c>
       <c r="U163" s="13"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>244</v>
       </c>
@@ -6970,7 +6974,7 @@
       <c r="P164" s="13"/>
       <c r="U164" s="13"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>242</v>
       </c>
@@ -6995,22 +6999,22 @@
       <c r="L165" s="2"/>
       <c r="P165" s="13"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P166" s="13"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q167" s="13"/>
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
       <c r="T167" s="13"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q168" s="13"/>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q169" s="13"/>
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
@@ -7018,6 +7022,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
@@ -7034,20 +7052,6 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="P13:S15"/>
-    <mergeCell ref="P38:S39"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R41:S41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7063,278 +7067,286 @@
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="101" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="106" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="E1" s="101" t="s">
+      <c r="C1" s="106"/>
+      <c r="E1" s="106" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="H1" s="104" t="s">
+      <c r="F1" s="106"/>
+      <c r="H1" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="K1" s="104" t="s">
+      <c r="I1" s="105"/>
+      <c r="K1" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="104"/>
-      <c r="N1" s="101" t="s">
+      <c r="L1" s="105"/>
+      <c r="N1" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="101"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="102" t="s">
+      <c r="O1" s="106"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="E2" s="102" t="s">
+      <c r="C2" s="104"/>
+      <c r="E2" s="103" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="H2" s="102" t="s">
+      <c r="F2" s="104"/>
+      <c r="H2" s="103" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="K2" s="102" t="s">
+      <c r="I2" s="104"/>
+      <c r="K2" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="N2" s="102" t="s">
+      <c r="L2" s="104"/>
+      <c r="N2" s="103" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="103"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="101" t="s">
+      <c r="O2" s="104"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="106" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="E11" s="101" t="s">
+      <c r="C11" s="106"/>
+      <c r="E11" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="H11" s="104" t="s">
+      <c r="F11" s="106"/>
+      <c r="H11" s="105" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="104"/>
-      <c r="K11" s="104" t="s">
+      <c r="I11" s="105"/>
+      <c r="K11" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="104"/>
-      <c r="N11" s="101" t="s">
+      <c r="L11" s="105"/>
+      <c r="N11" s="106" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="101"/>
-    </row>
-    <row r="12" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="102" t="s">
+      <c r="O11" s="106"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="103" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="E12" s="102" t="s">
+      <c r="C12" s="104"/>
+      <c r="E12" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="H12" s="102" t="s">
+      <c r="F12" s="104"/>
+      <c r="H12" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="K12" s="102" t="s">
+      <c r="I12" s="104"/>
+      <c r="K12" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="103"/>
-      <c r="N12" s="102" t="s">
+      <c r="L12" s="104"/>
+      <c r="N12" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="O12" s="103"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E21" s="101" t="s">
+      <c r="O12" s="104"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="101"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E22" s="102" t="s">
+      <c r="F21" s="106"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="103" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="103"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
+      <c r="F22" s="104"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
     <mergeCell ref="E22:F28"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L8"/>
@@ -7349,14 +7361,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I18"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O18"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O8"/>
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7370,7 +7374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7386,26 +7390,26 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="98"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -7413,7 +7417,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -7465,7 +7469,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7479,7 +7483,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -7493,7 +7497,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -7507,7 +7511,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -7521,7 +7525,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>100</v>
       </c>
@@ -7535,7 +7539,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -7549,7 +7553,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -7563,7 +7567,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -7577,15 +7581,15 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="98" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="100" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="98"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7593,7 +7597,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -7641,7 +7645,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -7657,7 +7661,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -7673,7 +7677,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -7689,7 +7693,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -7705,7 +7709,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -7721,7 +7725,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -7737,7 +7741,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -7753,15 +7757,15 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="98" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98" t="s">
+      <c r="B30" s="92"/>
+      <c r="C30" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="98"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7769,7 +7773,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -7801,7 +7805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7817,7 +7821,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -7833,7 +7837,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -7849,7 +7853,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -7865,7 +7869,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -7881,15 +7885,15 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="98" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98" t="s">
+      <c r="B41" s="92"/>
+      <c r="C41" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="98"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7897,7 +7901,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>18</v>
       </c>
@@ -7945,7 +7949,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -7961,7 +7965,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>37</v>
       </c>
@@ -7977,7 +7981,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
@@ -7993,7 +7997,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>51</v>
       </c>
@@ -8009,7 +8013,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
@@ -8025,7 +8029,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>55</v>
       </c>
@@ -8041,7 +8045,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>57</v>
       </c>
@@ -8057,15 +8061,15 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="98" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="98"/>
-      <c r="C55" s="98" t="s">
+      <c r="B55" s="92"/>
+      <c r="C55" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="98"/>
+      <c r="D55" s="92"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -8073,7 +8077,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>37</v>
       </c>
@@ -8121,7 +8125,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>39</v>
       </c>
@@ -8137,7 +8141,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>62</v>
       </c>
@@ -8153,7 +8157,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
@@ -8169,7 +8173,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>66</v>
       </c>
@@ -8185,15 +8189,15 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="98" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98" t="s">
+      <c r="B66" s="92"/>
+      <c r="C66" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="98"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -8201,7 +8205,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
@@ -8233,7 +8237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -8249,7 +8253,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -8265,7 +8269,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
@@ -8281,7 +8285,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
@@ -8297,7 +8301,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
@@ -8313,15 +8317,15 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="98" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98" t="s">
+      <c r="B77" s="92"/>
+      <c r="C77" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="98"/>
+      <c r="D77" s="92"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -8329,7 +8333,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>25</v>
       </c>
@@ -8361,7 +8365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
@@ -8377,7 +8381,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>72</v>
       </c>
@@ -8393,7 +8397,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -8409,7 +8413,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
@@ -8425,7 +8429,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -8441,7 +8445,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -8457,7 +8461,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>23</v>
       </c>
@@ -8473,7 +8477,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
@@ -8489,15 +8493,15 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="98" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="98"/>
-      <c r="C91" s="98" t="s">
+      <c r="B91" s="92"/>
+      <c r="C91" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="98"/>
+      <c r="D91" s="92"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -8505,7 +8509,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>25</v>
       </c>
@@ -8537,7 +8541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>70</v>
       </c>
@@ -8553,7 +8557,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>47</v>
       </c>
@@ -8569,7 +8573,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>37</v>
       </c>
@@ -8585,7 +8589,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>75</v>
       </c>
@@ -8601,7 +8605,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -8617,7 +8621,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>57</v>
       </c>
@@ -8633,7 +8637,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>77</v>
       </c>
@@ -8649,7 +8653,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>79</v>
       </c>
@@ -8665,7 +8669,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>55</v>
       </c>
@@ -8681,15 +8685,15 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="98" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="98"/>
-      <c r="C106" s="98" t="s">
+      <c r="B106" s="92"/>
+      <c r="C106" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="98"/>
+      <c r="D106" s="92"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -8697,7 +8701,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>25</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>37</v>
       </c>
@@ -8745,7 +8749,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>82</v>
       </c>
@@ -8761,15 +8765,15 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="98" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="98"/>
-      <c r="C114" s="98" t="s">
+      <c r="B114" s="92"/>
+      <c r="C114" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="98"/>
+      <c r="D114" s="92"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -8777,7 +8781,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
@@ -8809,7 +8813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>37</v>
       </c>
@@ -8825,7 +8829,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>82</v>
       </c>
@@ -8841,15 +8845,15 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="98" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="98"/>
-      <c r="C122" s="98" t="s">
+      <c r="B122" s="92"/>
+      <c r="C122" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="98"/>
+      <c r="D122" s="92"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8857,7 +8861,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>25</v>
       </c>
@@ -8889,7 +8893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>86</v>
       </c>
@@ -8905,7 +8909,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
@@ -8921,7 +8925,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>90</v>
       </c>
@@ -8937,7 +8941,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>92</v>
       </c>
@@ -8953,7 +8957,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>94</v>
       </c>
@@ -8969,7 +8973,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>96</v>
       </c>
@@ -8987,6 +8991,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="A122:B122"/>
@@ -8997,18 +9013,6 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9023,43 +9027,43 @@
   </sheetPr>
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="51.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="10" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="72" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="72" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="72"/>
-    <col min="12" max="12" width="39.5546875" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="72" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="72" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="72"/>
+    <col min="12" max="12" width="39.5" customWidth="1"/>
+    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108"/>
+      <c r="D1" s="110"/>
       <c r="E1" s="64"/>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
@@ -9072,7 +9076,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9110,7 +9114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -9140,7 +9144,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -9167,7 +9171,7 @@
       <c r="N4" s="66"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -9193,7 +9197,7 @@
       <c r="M5" s="54"/>
       <c r="N5" s="66"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -9219,7 +9223,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="66"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -9245,7 +9249,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="66"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>392</v>
       </c>
@@ -9271,7 +9275,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="73"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
@@ -9295,7 +9299,7 @@
       <c r="M9" s="54"/>
       <c r="N9" s="66"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -9321,11 +9325,11 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -9357,7 +9361,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -9387,7 +9391,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -9415,7 +9419,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
@@ -9438,17 +9442,17 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="90" t="s">
+      <c r="P14" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
       <c r="V14" s="48"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>232</v>
       </c>
@@ -9469,15 +9473,15 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>295</v>
       </c>
@@ -9498,15 +9502,15 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="2"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>159</v>
       </c>
@@ -9537,7 +9541,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -9558,7 +9562,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="49"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
@@ -9579,7 +9583,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P20" s="50" t="s">
         <v>88</v>
       </c>
@@ -9589,20 +9593,20 @@
       <c r="R20" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="98" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="105" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="106"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="64"/>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
@@ -9625,7 +9629,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="49"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -9677,7 +9681,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="49"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>330</v>
       </c>
@@ -9717,7 +9721,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="49"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>118</v>
       </c>
@@ -9757,7 +9761,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="49"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -9786,7 +9790,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="49"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -9823,7 +9827,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -9860,7 +9864,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="49"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -9895,7 +9899,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="49"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -9930,7 +9934,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="49"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -9961,7 +9965,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="49"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -9992,7 +9996,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="49"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -10026,12 +10030,12 @@
       <c r="R32" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S32" s="97"/>
-      <c r="T32" s="97"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -10070,7 +10074,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>133</v>
       </c>
@@ -10105,7 +10109,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="49"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
@@ -10134,37 +10138,37 @@
       <c r="U35" s="13"/>
       <c r="V35" s="49"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="P36" s="94" t="s">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P36" s="100" t="s">
         <v>290</v>
       </c>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P37" s="50"/>
       <c r="Q37" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R37" s="99"/>
-      <c r="S37" s="99"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="98" t="s">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="107" t="s">
+      <c r="B38" s="92"/>
+      <c r="C38" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="108"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="64"/>
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
@@ -10184,7 +10188,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -10240,7 +10244,7 @@
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>330</v>
       </c>
@@ -10283,7 +10287,7 @@
       <c r="U40" s="13"/>
       <c r="V40" s="49"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>118</v>
       </c>
@@ -10332,7 +10336,7 @@
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>138</v>
       </c>
@@ -10371,7 +10375,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="49"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>257</v>
       </c>
@@ -10415,7 +10419,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="49"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>388</v>
       </c>
@@ -10448,7 +10452,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="49"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -10486,7 +10490,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="49"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
@@ -10517,7 +10521,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="49"/>
     </row>
-    <row r="47" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
@@ -10556,7 +10560,7 @@
       <c r="U47" s="40"/>
       <c r="V47" s="55"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -10597,7 +10601,7 @@
       </c>
       <c r="V48" s="49"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>145</v>
       </c>
@@ -10638,9 +10642,9 @@
       </c>
       <c r="V49" s="49"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>371</v>
@@ -10679,7 +10683,7 @@
       </c>
       <c r="V50" s="49"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>102</v>
       </c>
@@ -10724,7 +10728,7 @@
       </c>
       <c r="V51" s="49"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P52" s="50"/>
       <c r="Q52" s="38" t="s">
         <v>270</v>
@@ -10743,7 +10747,7 @@
       </c>
       <c r="V52" s="49"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="69"/>
       <c r="P53" s="50"/>
       <c r="Q53" s="39"/>
@@ -10753,7 +10757,7 @@
       <c r="U53" s="13"/>
       <c r="V53" s="49"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="69"/>
       <c r="P54" s="61"/>
       <c r="Q54" s="62"/>
@@ -10763,15 +10767,15 @@
       <c r="U54" s="62"/>
       <c r="V54" s="63"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" s="98" t="s">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="98"/>
-      <c r="C55" s="107" t="s">
+      <c r="B55" s="92"/>
+      <c r="C55" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="D55" s="108"/>
+      <c r="D55" s="110"/>
       <c r="E55" s="64"/>
       <c r="F55" s="74"/>
       <c r="G55" s="74"/>
@@ -10789,7 +10793,7 @@
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -10830,7 +10834,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>330</v>
       </c>
@@ -10858,7 +10862,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -10892,7 +10896,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>138</v>
       </c>
@@ -10916,7 +10920,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>257</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>388</v>
       </c>
@@ -10974,7 +10978,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
@@ -11005,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>225</v>
       </c>
@@ -11032,7 +11036,7 @@
       <c r="L63" s="2"/>
       <c r="R63" s="20"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
@@ -11056,7 +11060,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>149</v>
       </c>
@@ -11088,7 +11092,7 @@
       <c r="T65"/>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>144</v>
       </c>
@@ -11118,7 +11122,7 @@
       <c r="T66"/>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>150</v>
       </c>
@@ -11150,7 +11154,7 @@
       <c r="T67"/>
       <c r="U67"/>
     </row>
-    <row r="68" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -11181,7 +11185,7 @@
       <c r="S68"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>145</v>
       </c>
@@ -11210,7 +11214,7 @@
       <c r="S69"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>126</v>
       </c>
@@ -11236,7 +11240,7 @@
       <c r="P70" s="13"/>
       <c r="U70" s="13"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="83" t="s">
         <v>102</v>
       </c>
@@ -11269,7 +11273,7 @@
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="70"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
@@ -11277,21 +11281,21 @@
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="68"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="69"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
     </row>
-    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="69"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -11307,15 +11311,15 @@
       <c r="P75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="98" t="s">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="98"/>
-      <c r="C76" s="107" t="s">
+      <c r="B76" s="92"/>
+      <c r="C76" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="108"/>
+      <c r="D76" s="110"/>
       <c r="E76" s="64"/>
       <c r="F76" s="74"/>
       <c r="G76" s="74"/>
@@ -11325,7 +11329,7 @@
       <c r="K76" s="74"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>25</v>
       </c>
@@ -11366,7 +11370,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>263</v>
       </c>
@@ -11397,7 +11401,7 @@
       <c r="L78" s="44"/>
       <c r="U78" s="13"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>37</v>
       </c>
@@ -11422,7 +11426,7 @@
       <c r="K79" s="10"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>39</v>
       </c>
@@ -11447,7 +11451,7 @@
       <c r="L80" s="2"/>
       <c r="P80" s="13"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>152</v>
       </c>
@@ -11471,7 +11475,7 @@
       <c r="K81" s="10"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>154</v>
       </c>
@@ -11493,7 +11497,7 @@
       <c r="K82" s="10"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>159</v>
       </c>
@@ -11519,8 +11523,8 @@
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="109" t="s">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="90" t="s">
         <v>456</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -11541,8 +11545,8 @@
       <c r="K84" s="10"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="109" t="s">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="90" t="s">
         <v>159</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -11567,8 +11571,8 @@
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="109" t="s">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="90" t="s">
         <v>461</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -11589,8 +11593,8 @@
       <c r="K86" s="10"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="109" t="s">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="90" t="s">
         <v>159</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -11615,7 +11619,7 @@
       <c r="S87" s="13"/>
       <c r="T87" s="13"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>157</v>
       </c>
@@ -11642,7 +11646,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>257</v>
       </c>
@@ -11666,7 +11670,7 @@
       <c r="K89" s="10"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
         <v>295</v>
       </c>
@@ -11688,7 +11692,7 @@
       <c r="K90" s="10"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>388</v>
       </c>
@@ -11716,20 +11720,20 @@
         <v>437</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="110" t="s">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="91" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="98" t="s">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="98"/>
-      <c r="C94" s="107" t="s">
+      <c r="B94" s="92"/>
+      <c r="C94" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="108"/>
+      <c r="D94" s="110"/>
       <c r="E94" s="64"/>
       <c r="F94" s="74"/>
       <c r="G94" s="74"/>
@@ -11739,7 +11743,7 @@
       <c r="K94" s="74"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>25</v>
       </c>
@@ -11780,7 +11784,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>263</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>37</v>
       </c>
@@ -11837,7 +11841,7 @@
       <c r="K97" s="10"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>225</v>
       </c>
@@ -11865,7 +11869,7 @@
       <c r="K98" s="10"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>140</v>
       </c>
@@ -11889,7 +11893,7 @@
       <c r="K99" s="10"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>340</v>
       </c>
@@ -11913,7 +11917,7 @@
       <c r="K100" s="10"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>154</v>
       </c>
@@ -11935,7 +11939,7 @@
       <c r="K101" s="10"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>159</v>
       </c>
@@ -11957,7 +11961,7 @@
       <c r="K102" s="10"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>157</v>
       </c>
@@ -11983,7 +11987,7 @@
       <c r="K103" s="10"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>257</v>
       </c>
@@ -12007,7 +12011,7 @@
       <c r="K104" s="10"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="45" t="s">
         <v>295</v>
       </c>
@@ -12029,7 +12033,7 @@
       <c r="K105" s="10"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>388</v>
       </c>
@@ -12057,21 +12061,21 @@
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="70"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="98" t="s">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="98"/>
-      <c r="C109" s="105" t="s">
+      <c r="B109" s="92"/>
+      <c r="C109" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="D109" s="106"/>
+      <c r="D109" s="108"/>
       <c r="E109" s="64"/>
       <c r="F109" s="74"/>
       <c r="G109" s="74"/>
@@ -12082,7 +12086,7 @@
       <c r="L109" s="9"/>
       <c r="M109" s="31"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>25</v>
       </c>
@@ -12121,7 +12125,7 @@
       </c>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>330</v>
       </c>
@@ -12148,7 +12152,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>424</v>
       </c>
@@ -12187,7 +12191,7 @@
       <c r="T112"/>
       <c r="U112"/>
     </row>
-    <row r="113" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>217</v>
       </c>
@@ -12223,7 +12227,7 @@
       <c r="T113"/>
       <c r="U113"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="82" t="s">
         <v>263</v>
       </c>
@@ -12255,7 +12259,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>37</v>
       </c>
@@ -12284,7 +12288,7 @@
       </c>
       <c r="U115" s="19"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>225</v>
       </c>
@@ -12312,7 +12316,7 @@
       <c r="M116" s="1"/>
       <c r="U116" s="19"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>323</v>
       </c>
@@ -12340,7 +12344,7 @@
       <c r="M117" s="1"/>
       <c r="P117" s="19"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>162</v>
       </c>
@@ -12365,7 +12369,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>102</v>
       </c>
@@ -12394,23 +12398,23 @@
       </c>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="68"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" s="98" t="s">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="98"/>
-      <c r="C122" s="107" t="s">
+      <c r="B122" s="92"/>
+      <c r="C122" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="D122" s="108"/>
+      <c r="D122" s="110"/>
       <c r="E122" s="64"/>
       <c r="F122" s="74"/>
       <c r="G122" s="74"/>
@@ -12421,7 +12425,7 @@
       <c r="L122" s="9"/>
       <c r="M122" s="68"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>25</v>
       </c>
@@ -12460,7 +12464,7 @@
       </c>
       <c r="M123" s="69"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>86</v>
       </c>
@@ -12486,7 +12490,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
@@ -12512,7 +12516,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>90</v>
       </c>
@@ -12534,7 +12538,7 @@
       <c r="K126" s="10"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>92</v>
       </c>
@@ -12557,7 +12561,7 @@
       <c r="L127" s="2"/>
       <c r="O127" s="13"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>94</v>
       </c>
@@ -12582,7 +12586,7 @@
       <c r="L128" s="2"/>
       <c r="O128" s="13"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>96</v>
       </c>
@@ -12605,7 +12609,7 @@
       <c r="L129" s="2"/>
       <c r="O129" s="13"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>387</v>
       </c>
@@ -12626,14 +12630,16 @@
       <c r="L130" s="2"/>
       <c r="O130" s="13"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="D131" s="2" t="s">
         <v>177</v>
       </c>
@@ -12649,7 +12655,7 @@
       <c r="L131" s="2"/>
       <c r="O131" s="13"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>333</v>
       </c>
@@ -12670,7 +12676,7 @@
       <c r="L132" s="2"/>
       <c r="O132" s="13"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>334</v>
       </c>
@@ -12693,7 +12699,7 @@
       <c r="L133" s="2"/>
       <c r="O133" s="13"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>335</v>
       </c>
@@ -12716,27 +12722,27 @@
       <c r="L134" s="2"/>
       <c r="O134" s="13"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="70"/>
       <c r="O135" s="13"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="70"/>
       <c r="P136" s="13"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="68"/>
       <c r="P137" s="13"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A138" s="98" t="s">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="98"/>
-      <c r="C138" s="107" t="s">
+      <c r="B138" s="92"/>
+      <c r="C138" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="D138" s="108"/>
+      <c r="D138" s="110"/>
       <c r="E138" s="64"/>
       <c r="F138" s="74"/>
       <c r="G138" s="74"/>
@@ -12747,7 +12753,7 @@
       <c r="L138" s="9"/>
       <c r="P138" s="13"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>25</v>
       </c>
@@ -12788,7 +12794,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>447</v>
       </c>
@@ -12818,7 +12824,7 @@
       <c r="K140" s="67"/>
       <c r="L140" s="15"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>263</v>
       </c>
@@ -12845,7 +12851,7 @@
       <c r="L141" s="44"/>
       <c r="P141" s="13"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>37</v>
       </c>
@@ -12869,7 +12875,7 @@
       <c r="K142" s="10"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
@@ -12897,7 +12903,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>169</v>
       </c>
@@ -12921,7 +12927,7 @@
       <c r="K144" s="10"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>171</v>
       </c>
@@ -12943,7 +12949,7 @@
       <c r="K145" s="10"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>331</v>
       </c>
@@ -12965,7 +12971,7 @@
       <c r="K146" s="10"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>172</v>
       </c>
@@ -12987,21 +12993,21 @@
       <c r="K147" s="10"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="76"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="70"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="98" t="s">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="98"/>
-      <c r="C151" s="107" t="s">
+      <c r="B151" s="92"/>
+      <c r="C151" s="109" t="s">
         <v>386</v>
       </c>
-      <c r="D151" s="108"/>
+      <c r="D151" s="110"/>
       <c r="E151" s="64"/>
       <c r="F151" s="74"/>
       <c r="G151" s="74"/>
@@ -13011,7 +13017,7 @@
       <c r="K151" s="74"/>
       <c r="L151" s="9"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>25</v>
       </c>
@@ -13049,7 +13055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>257</v>
       </c>
@@ -13077,7 +13083,7 @@
       <c r="K153" s="10"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>337</v>
       </c>
@@ -13105,7 +13111,7 @@
       <c r="T154"/>
       <c r="U154"/>
     </row>
-    <row r="155" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="69"/>
       <c r="B155" s="27"/>
       <c r="F155" s="73"/>
@@ -13121,7 +13127,7 @@
       <c r="T155"/>
       <c r="U155"/>
     </row>
-    <row r="156" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="26"/>
       <c r="B156" s="26"/>
       <c r="E156" s="28"/>
@@ -13138,7 +13144,7 @@
       <c r="T156"/>
       <c r="U156"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="29"/>
       <c r="B157" s="29"/>
       <c r="C157" s="13"/>
@@ -13153,15 +13159,15 @@
       <c r="L157" s="13"/>
       <c r="U157" s="13"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A158" s="98" t="s">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="98"/>
-      <c r="C158" s="105" t="s">
+      <c r="B158" s="92"/>
+      <c r="C158" s="107" t="s">
         <v>385</v>
       </c>
-      <c r="D158" s="106"/>
+      <c r="D158" s="108"/>
       <c r="E158" s="64"/>
       <c r="F158" s="74"/>
       <c r="G158" s="74"/>
@@ -13172,7 +13178,7 @@
       <c r="L158" s="9"/>
       <c r="U158" s="13"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>25</v>
       </c>
@@ -13211,7 +13217,7 @@
       </c>
       <c r="U159" s="13"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>388</v>
       </c>
@@ -13242,7 +13248,7 @@
       <c r="L160" s="3"/>
       <c r="U160" s="13"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>324</v>
       </c>
@@ -13267,7 +13273,7 @@
       <c r="L161" s="75"/>
       <c r="U161" s="13"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>325</v>
       </c>
@@ -13292,7 +13298,7 @@
       <c r="L162" s="75"/>
       <c r="U162" s="13"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>326</v>
       </c>
@@ -13317,7 +13323,7 @@
       <c r="L163" s="75"/>
       <c r="U163" s="13"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>327</v>
       </c>
@@ -13338,7 +13344,7 @@
       <c r="L164" s="75"/>
       <c r="U164" s="13"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>328</v>
       </c>
@@ -13360,7 +13366,7 @@
       <c r="P165" s="13"/>
       <c r="U165" s="13"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>244</v>
       </c>
@@ -13385,7 +13391,7 @@
       <c r="L166" s="22"/>
       <c r="P166" s="13"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="86" t="s">
         <v>242</v>
       </c>
@@ -13410,21 +13416,21 @@
       <c r="L167" s="88"/>
       <c r="P167" s="13"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="69"/>
       <c r="Q168" s="13"/>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="69"/>
       <c r="Q169" s="13"/>
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
       <c r="T169" s="13"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="69"/>
       <c r="Q170" s="13"/>
       <c r="R170" s="13"/>
@@ -13433,16 +13439,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="P14:S16"/>
+    <mergeCell ref="S20:T20"/>
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="S32:T32"/>
@@ -13454,13 +13457,16 @@
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="P14:S16"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A138:B138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
